--- a/testy/zestawy.xlsx
+++ b/testy/zestawy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sikma\Jupyter\KompasPolityczny\testy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFDABEB-4073-4315-8C69-A435010BEFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD2B525-EBB4-4DD1-BE9A-9F5DB7B2836E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="180" windowWidth="25440" windowHeight="15390" xr2:uid="{1A87FE2A-7AC0-4DE6-948E-C1B67B8D7723}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="97">
   <si>
     <t>Aborcja</t>
   </si>
@@ -89,12 +89,6 @@
     <t>Podatek katastralny</t>
   </si>
   <si>
-    <t>centro-lewica</t>
-  </si>
-  <si>
-    <t>centrum</t>
-  </si>
-  <si>
     <t>Aborcja jest zła, bo polega na zabiciu człowieka. To sprzeczne z jakimikolwiek zasadami moralnymi. Aborcja powinna być dopuszczalna tylko w skrajnych przypadkach.</t>
   </si>
   <si>
@@ -137,87 +131,21 @@
     <t>ZUS powinien zostać sprywatyzowany i każdy powinien zadbać o własną emeryturę samodzielnie. Kto nie potrafi, ten będzie bez pieniędzy. Każdy potrafi zadbać o siebie, nie trzeba płacić na te studnie bez dna.</t>
   </si>
   <si>
-    <t>Podatek dochodowy to kara za pracę. Dosłownie im więcej pracujesz, tym więcej się odbiera. To jest paranoja ile pieniędzy oddaje się do państwa.</t>
-  </si>
-  <si>
     <t>Podatek katastralny to zły pomysł, bo kto ma go obejść i tak go obejdzie. A rząd zapewne będzie przesuwał granicę coraz dalej, aż w końcu zwykli obywatele poniosą koszty. Nie popieram kolejnych podatków.</t>
   </si>
   <si>
     <t>800+ to zły pomysł. Te świadczenia nie naprawiły demografii Polski, ludzi wciąż rodzi się mało. Ogromne koszty a nic z tego nie ma.</t>
   </si>
   <si>
-    <t>Aborcja mogłaby być legalna, ale w niektórych przypadkach, np. ciężka choroba dziecka lub zagrożenie życia matki.</t>
-  </si>
-  <si>
-    <t>Nie jestem pewny co do eutanazji. Trochę ingeruje to w naturę ludzką i to tak jakby kogoś zabić za jego zgodą, a z drugiej strony człowiek mógłby mieć wybór czy chce odejść godnie.</t>
-  </si>
-  <si>
-    <t>Kara śmierci to raczej przeżytek, ale za najcięższe zbrodnie w ramach odstraszania mogłoby być dobrym pomysłem.</t>
-  </si>
-  <si>
-    <t>In vitro mi nie przeszkadza, dopóki nie będzie refundowane z pieniędzy podatników. Wiele dzieci czeka w domach dziecka na adopcje.</t>
-  </si>
-  <si>
-    <t>Nie chciałbym w Polsce drugiego USA i strzelanin, ale człowiek powinien móc bronić siebie i rodzinę. Policja nie zawsze jest na czas, a trzeba reagować.</t>
-  </si>
-  <si>
-    <t>Zamiast służby wojskowej wolałbym kursy albo szkolenia, obowiązkowa służba to stare dzieje, które mało ludzi wspomina dobrze. To strata czasu.</t>
-  </si>
-  <si>
-    <t>Nie jestem za przyjęciem waluty Euro, a na pewno nie teraz. Powinniśmy z tym zaczekać. Inne kraje podobne do nas, które przyjęły Euro, potem z tego powodu cierpiały.</t>
-  </si>
-  <si>
-    <t>Unia Europejska za bardzo ingeruje w nasze sprawy i rozkazuje państwom członkowskim, ale z drugiej strony nie możemy z niej wyjść. Powinniśmy domagać się zmian i walczyć o większe prawo głosu.</t>
-  </si>
-  <si>
-    <t>Powinniśmy wybudować CPK bo to ważny projekt dla Polski, ale obawiam się o jego wykonanie i czy na pewno będzie tak spożytkowany jak powinien być. Nie wiem też czy władza da sobie radę z takim przedsięwzięciem.</t>
-  </si>
-  <si>
-    <t>Zakaz samochodów spalinowych jest złym pomysłem, według mnie powinniśmy zachęcać i na przykład dopłacać do przejścia na samochody elektryczne. Zakazy zawsze są złe i do tego uderzą w biednych.</t>
-  </si>
-  <si>
-    <t>800+ jest bardzo potrzebne i wiele rodzin z tego skorzystało. Demografia wciąż jest zła, ale można sobie wyobrazić co by było gdyby nie było tych świadczeń. Te pieniądze są po prostu potrzebne młodym rodzinom.</t>
-  </si>
-  <si>
     <t>Renta wdowia to ratunek dla polskich emerytów, którym żyje się źle - starsi ludzie mają mało pieniędzy, leki są drogie, wszystko drożeje. Emeryci z innych państw podróżują, a emeryci polscy głodują.</t>
   </si>
   <si>
-    <t>Nie jestem za prywatyzacją żadnej publicznej placówki. ZUS jest jaki jest, ale daje bezpieczeństwo i stabilność. Państwo powinno dbać o ludzi i zapewniać im jakieś godne minimum.</t>
-  </si>
-  <si>
-    <t>Podatek dochodowy mi się nie podoba, ale jest potrzebny. To główny dochód państwa i finansowane jest z niego wiele świadczeń i projektów. Państwo by upadło bez tych pieniędzy.</t>
-  </si>
-  <si>
-    <t>Podatek katastralny jest świetnym pomysłem, dzięki którym bogaci ludzie będą musieli dołożyć trochę więcej do budżetu. Każdy kto ma wiele mieszkań może dodatkowo płacić więcej państwu.</t>
-  </si>
-  <si>
-    <t>Nie jestem za przyjmowaniem imigrantów, to są ludzie zwabieni i wysłani na polecenie Putina, a to zbyt niebezpieczne wpuszczać ich do kraju. To nie nasz problem.</t>
-  </si>
-  <si>
-    <t>Nie jestem za wspólną armią Unii Europejskiej, ponieważ mamy NATO i ONZ. Powinniśmy się zbroić sami, a z Unią Europejską np. umacniać flanki czy granice. Ale nic więcej.</t>
-  </si>
-  <si>
-    <t>konserwatysta obyczajowy, patriota, socjalistyczny</t>
-  </si>
-  <si>
-    <t>konserwatyzm obyczajowy, nacjonalista, liberalizm rynkowy</t>
-  </si>
-  <si>
-    <t>liberalizm społeczny, kosmopolita, liberalizm rynkowy</t>
-  </si>
-  <si>
     <t>Aborcja powinna być legalna i każda kobieta powinna móc decydować o swoim ciele. To w końcu ona rodzi i przeżywa męczarnie. Nikt nie ma prawa jej zmuszać.</t>
   </si>
   <si>
     <t>Jestem za legalną eutanazją, bo to normalne że człowiek chce odejść ze świata godnie bez cierpienia. Eutanazja to wybór, który człowiek musi mieć.</t>
   </si>
   <si>
-    <t>Nie jestem za karą śmierci, bo nie żyjemy w średniowieczu. Resocjalizacja, przymusowe prace, ale nie zabicie człowieka.</t>
-  </si>
-  <si>
-    <t>In vitro to ogromna możliwość dla ludzi, którzy po prostu nie mogą mieć dzieci. Argument o adopcji jest głupi, bo wiele ludzi chce po prostu swoje dziecko, własne.</t>
-  </si>
-  <si>
     <t>Jestem przeciwny legalizacji broni, bo to za duże ryzyko. Ludzie są głupi i zaczęłyby się strzelaniny od byle kłótni. Nie chcę w Polsce drugiego USA.</t>
   </si>
   <si>
@@ -227,41 +155,185 @@
     <t>Każdy zasługuje na prawo do życia. Prawa człowieka nakazują wpuścić ludzi z granicy i się nimi zająć, nieważne skąd są i kto ich przysłał. Przy odpowiednich kontrolach nie sprowadzimy na Polskę niebezpieczeństwa.</t>
   </si>
   <si>
-    <t>Potrzebujemy wspólnej armii Unii Europejskiej, bo tylko zjednoczona Europa to gwarant bezpieczeństwa. Osobne armie państw są małe i słabe, a jedna zjednoczona armia to wojsko które może stawić czoła Rosji.</t>
-  </si>
-  <si>
-    <t>Potrzebujemy wprowadzić walutę Euro i zrealizować nasze zobowiązowania sprzed lat. To silna i stabilna waluta, która jest standardem w całej Unii Europejskiej.</t>
-  </si>
-  <si>
-    <t>Powinniśmy zacieśniać więzi z Unią Europejską i polepszać nasze stosunki. Powinniśmy być zjednoczeni i żyć w przyjaźni, solidna współpraca i sojusz to podstawa.</t>
-  </si>
-  <si>
-    <t>CPK to niepotrzebna inwestycja, która jest próbą pokazania siły. Polska nie potrzebuje takiego portu lotniczego, ale oczywiście musimy na coś przewalić pieniądze.</t>
-  </si>
-  <si>
-    <t>Ten projekt to kolejne rozdawnictwo. Ludzie powinni móc odetchnąć, a nie ciągle płacić państwu na innych ludzi. Przyrost naturalny leży, a ogromne kwoty trafiają do ludzi, ciekawe po co.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Powinniśmy przyjąć system konkurencji i odejść od monopolu. Ludzie powinni mieć wybór i sami powinni zdecydować jak chcą odkładać na swoją emeryturę. </t>
-  </si>
-  <si>
-    <t>Renta wdowia to bezsensowny pomysł który wyciągnie z budżetu kolejne miliardy, na które złożą się wszyscy obywatele w podatkach. Nie każdy ma ochotę płacić na innych.</t>
-  </si>
-  <si>
-    <t>Podatek dochodowy to złodziejstwo i kara za dobrze wykonaną pracę, im lepiej i ciężej pracujesz tym większy podatek. Podatki powinny być jak najniższe, a dochodowy całkowicie zlikwidowany.</t>
-  </si>
-  <si>
-    <t>Podatek katastralny to duże ryzyko do nadużyć i uderzenia w ludzi którzy posiadają na przykład dwa mieszkania. Coraz więcej podatków i coraz więcej wydatków zmierza donikąd.</t>
-  </si>
-  <si>
-    <t>Nie można ot tak zakazać posiadania samochodów spalinowych. To sprzeczne z wolnością jednostki, dodatkowo uderzy to w najbiedniejszych.</t>
+    <t>Profil wyborczy 1</t>
+  </si>
+  <si>
+    <t>Profil wyborczy 2</t>
+  </si>
+  <si>
+    <t>Profil wyborczy 3</t>
+  </si>
+  <si>
+    <t>Podatek dochodowy to kara za pracę. Dosłownie im więcej pracujesz, tym więcej się odbiera. To jest paranoja ile pieniędzy oddaje się do państwa. To nie jest sprawiedliwe.</t>
+  </si>
+  <si>
+    <t>Popieram wprowadzenie podatku katastralnego, bo to szansa na dodatkowe pieniądze dla państwa. Najważniejsze żeby dotyczył tylko najbogatszych, a nie zwykłych ludzi.</t>
+  </si>
+  <si>
+    <t>Nie lubię podatku dochodowego, ale niestety państwo w głównej mierze ma pieniądze dzięki niemu. Wolałbym inny system albo zmianę przepisów, ale nie całkowitej likwidacji.</t>
+  </si>
+  <si>
+    <t>ZUS jest jaki jest i często nie działa, ale daje bezpieczeństwo ludziom w największej potrzebie. Nie można pozwolić na to żeby został sprywatyzowany.</t>
+  </si>
+  <si>
+    <t>Renta wdowia to dobry projekt, dzięki któremu starzy ludzie, którzy są samotni, mogą dostać trochę więcej pieniędzy. Życie w pojedynkę jest trudne, a renta wdowia pozwala przetrwać.</t>
+  </si>
+  <si>
+    <t>Świadczenie 800+ niby jest dobre, ale dalej są problemy demograficzne. Tych pieniędzy już nie można zabrać ludziom, ale warto zastanowić się nad innymi sposobami walki z małą dzietnością. Ogólnie popieram, ale to nie był najlepszy projekt.</t>
+  </si>
+  <si>
+    <t>Ograniczanie spalin i zanieczyszczeń jest potrzebne, ale nie uważam że zakazy to dobry pomysł. Powinniśmy dążyć do rezygnacji z samochodów spalinowych, ale raczej dopłatami i zachętami.</t>
+  </si>
+  <si>
+    <t>Polska potrzebuje Unii Europejskiej, bo razem jesteśmy silniejsi. Bez niej zostaniemy sami lub zostawieni na pastwę Rosji. Musimy współpracować, ale musimy też pamiętać o naszej suwerenności, a nie przyjmować wszystko jak leci.</t>
+  </si>
+  <si>
+    <t>Dawno temu zobowiązaliśmy się do przyjęcia waluty Euro i uważam że powinniśmy w końcu ją przyjąć, ale może nie teraz. Wiele się dzieje na świecie i w polityce, myślę że wkrótce będziemy gotowi.</t>
+  </si>
+  <si>
+    <t>Wspólna armia Unii Europejskiej to chyba trochę za dużo. Popieram współpracę i integrację, ale jeśli chodzi o armię, to może raczej wspólne ćwiczenia lub jednolite uzbrojenie, a nie od razu jedno wojsko. Państwa muszą mieć własnych żołnierzy.</t>
+  </si>
+  <si>
+    <t>Szkoda mi imigrantów koczujących na wschodniej granicy, ale to są ludzie wysyłani na polecenie Rosji. To jest próba destabilizacji sytuacji w naszym kraju. Można im pomóc, ale nie możemy ich wpuszczać.</t>
+  </si>
+  <si>
+    <t>Nie popieram obowiązkowej służby wojskowej, bo to odbiera wolność. Jakieś kursy lub dobrowolne szkolenia, ale nie służba na miesiące czy lata. To nie jest rozwiązanie.</t>
+  </si>
+  <si>
+    <t>Polacy są zbyt rozbrojonym narodem, myślę że prawo można trochę poluzować, ale przede wszystkim trzeba zmienić przepisy żeby człowiek bez obaw mógł się bronić. Broń palna to sprawa drugorzędna.</t>
+  </si>
+  <si>
+    <t>In vitro to nienaturalny proces zapłodnienia i jest trochę sprzeczny z tym jak działa świat i jak Bóg stworzył człowieka. Mimo to wiele par ma możliwość posiadania dziecka, którego sami nie umieją zrobić. Jestem neutralny.</t>
+  </si>
+  <si>
+    <t>Raczej nie popieram kary śmierci, nigdzie dookoła nas w Europie jej nie ma, nie wiem czy jej potrzebujemy. A jeśli już, to jestem za ale dla najgorszych przestępców, żeby dawać sygnał innym.</t>
+  </si>
+  <si>
+    <t>Nie jestem za legalizacją aborcji. Uważam że najlepsze rozwiązanie to kompromis aborcyjny, tak by kobieta bez strachu o własne życie lub zdrowie dziecka mogła zajść w ciążę. Popieram usunięcie ciąży do któregoś tygodnia gdy zagraża kobiecie, jest z gwałtu itp.</t>
+  </si>
+  <si>
+    <t>Eutanazja to możliwość odejścia z tego świata na własnych zasadach. W innych państwach to wprowadzają, może u nas też warto się nad tym zastanowić. To duży skok cywilizacyjny.</t>
+  </si>
+  <si>
+    <t>Nie jestem za karą śmierci, bo nie żyjemy w średniowieczu. Resocjalizacja to klucz, a nie zabicie człowieka. W żadnym cywilizowanym państwie kara śmierci nie funkcjonuje.</t>
+  </si>
+  <si>
+    <t>In vitro to ogromna możliwość dla ludzi, którzy po prostu nie mogą mieć dzieci. Argument o adopcji jest głupi, bo wiele ludzi chce po prostu swoje dziecko, własne. In vitro powinno być legalne i refundowane.</t>
+  </si>
+  <si>
+    <t>800+ jest bardzo potrzebne i wiele rodzin z tego skorzystało. Te pieniądze są po prostu potrzebne młodym rodzinom i strach pomyśleć w jakim stanie byłoby państwo bez tej pomocy.</t>
+  </si>
+  <si>
+    <t>Nie jestem za prywatyzacją żadnej publicznej placówki. ZUS daje bezpieczeństwo i stabilność. Państwo powinno dbać o ludzi i zapewniać im godne minimum.</t>
+  </si>
+  <si>
+    <t>Podatek dochodowy to główny dochód państwa i finansowane jest z niego wiele świadczeń i projektów. Państwo by upadło bez tych pieniędzy. Z czegoś trzeba utrzymywać wiele instytucji i projektów.</t>
+  </si>
+  <si>
+    <t>Podatek katastralny jest świetnym pomysłem, dzięki którym bogaci ludzie będą musieli dołożyć trochę więcej do budżetu. Każdy kto ma wiele mieszkań może też dodatkowo płacić więcej państwu, krzywda mu się nie stanie.</t>
+  </si>
+  <si>
+    <t>CPK to niepotrzebna inwestycja. Polska nie potrzebuje takiego portu lotniczego, ale oczywiście musimy na coś przewalić pieniądze i zniszczyć środowisko. Ciekawe ile kasy zostanie rozkradzione.</t>
+  </si>
+  <si>
+    <t>Spaliny i zanieczyszczenia to nasz największy wróg. Zmiany klimatyczne są realnym problemem, dlatego popieram zakaz samochodów spalinowych, nie ma czasu na prośby i zachęty. Trzeba działać.</t>
+  </si>
+  <si>
+    <t>Unia Europejska to wspólnota, dzięki której wszyscy członkowie są silniejsi, ale przeszkadzają mi niektóre pomysły i przymus. Musimy współpracować, ale też stawiać granice.</t>
+  </si>
+  <si>
+    <t>Na ten moment wolę zostać przy polskiej złotówce. Przyjęcie waluty euro to kolejny krok do dalszej federalizacji Unii. To na pewno kiedyś nastąpi, ale musimy do tego podejść na spokojnie.</t>
+  </si>
+  <si>
+    <t>Wspólna armia wszystkich państw członkowskich to chyba trochę za dużo. Moglibyśmy współpracować w ramach akcji i szkoleń, ale to zbyt niebezpieczne dla członków aby tworzyć jedno wojsko.</t>
+  </si>
+  <si>
+    <t>Projekt CPK to rozwój na arenie międzynarodowej, Polska potrzebuje takich planów. Ale martwię się o ingerencję w środowisko i czy kompetentni politycy zrobią to w zgodzie z naturą.</t>
+  </si>
+  <si>
+    <t>MiniLM</t>
+  </si>
+  <si>
+    <t>Bge</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>stsbxlr</t>
+  </si>
+  <si>
+    <t>stpolish</t>
+  </si>
+  <si>
+    <t>PolBERT</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>Konfederacja</t>
+  </si>
+  <si>
+    <t>Republikanie</t>
+  </si>
+  <si>
+    <t>PiS</t>
+  </si>
+  <si>
+    <t>Razem</t>
+  </si>
+  <si>
+    <t>Lewica</t>
+  </si>
+  <si>
+    <t>Polska 2050</t>
+  </si>
+  <si>
+    <t>Partia nieznana</t>
+  </si>
+  <si>
+    <t>Konf 1,6,9</t>
+  </si>
+  <si>
+    <t>KO 2,3,7</t>
+  </si>
+  <si>
+    <t>PiS 4,5,10</t>
+  </si>
+  <si>
+    <t>Republ 8</t>
+  </si>
+  <si>
+    <t>KO 1,3,6,8,9</t>
+  </si>
+  <si>
+    <t>Konf 2,4</t>
+  </si>
+  <si>
+    <t>Republ 5</t>
+  </si>
+  <si>
+    <t>PiS 7,10</t>
+  </si>
+  <si>
+    <t>Konf 1,9</t>
+  </si>
+  <si>
+    <t>KO 2,4,5,7,8</t>
+  </si>
+  <si>
+    <t>Republ 3</t>
+  </si>
+  <si>
+    <t>PiS 6,10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +349,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -286,7 +381,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -331,11 +426,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -343,6 +490,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -358,6 +527,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2314576</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1484320</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>150404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01578053-74F8-E78C-40A5-940EF8B2E94F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857751" y="142875"/>
+          <a:ext cx="5780094" cy="3788954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -677,278 +895,1077 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5292F21-5794-455C-9DA5-49E6CB259BCC}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:Z57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.140625" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="73.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="4" max="4" width="53.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D26" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="D27" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G42" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P42" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q42" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="R42" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="S42" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="U42" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="V42" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="W42" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X42" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y42" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z42" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E43">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" s="10"/>
+      <c r="I43" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L43" s="10"/>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O43" s="10"/>
+      <c r="P43" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q43" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="R43" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="S43" s="10"/>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="V43" s="10"/>
+      <c r="W43" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="X43" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y43" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z43" s="10"/>
+    </row>
+    <row r="44" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>0.9</v>
+      </c>
+      <c r="F44">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="G44" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H44" s="10"/>
+      <c r="I44" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L44" s="10"/>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O44" s="10"/>
+      <c r="P44" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q44" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="R44" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="S44" s="10"/>
+      <c r="T44">
+        <v>2</v>
+      </c>
+      <c r="U44" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="V44" s="10"/>
+      <c r="W44" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="X44" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y44" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z44" s="10"/>
+    </row>
+    <row r="45" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>0.8</v>
+      </c>
+      <c r="F45">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="G45" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H45" s="10"/>
+      <c r="I45" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L45" s="10"/>
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O45" s="10"/>
+      <c r="P45" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q45" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="R45" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="S45" s="10"/>
+      <c r="T45">
+        <v>3</v>
+      </c>
+      <c r="U45" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="V45" s="10"/>
+      <c r="W45" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="X45" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y45" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z45" s="10"/>
+    </row>
+    <row r="46" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <v>0.7</v>
+      </c>
+      <c r="F46">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="G46" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H46" s="10"/>
+      <c r="I46" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L46" s="10"/>
+      <c r="M46">
+        <v>4</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O46" s="10"/>
+      <c r="P46" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q46" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="R46" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="S46" s="10"/>
+      <c r="T46">
+        <v>4</v>
+      </c>
+      <c r="U46" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="V46" s="10"/>
+      <c r="W46" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="X46" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y46" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z46" s="10"/>
+    </row>
+    <row r="47" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <v>0.6</v>
+      </c>
+      <c r="F47">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="G47" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H47" s="10"/>
+      <c r="I47" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L47" s="10"/>
+      <c r="M47">
+        <v>5</v>
+      </c>
+      <c r="N47" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O47" s="10"/>
+      <c r="P47" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q47" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="R47" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="S47" s="10"/>
+      <c r="T47">
+        <v>5</v>
+      </c>
+      <c r="U47" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="V47" s="10"/>
+      <c r="W47" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="X47" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y47" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z47" s="10"/>
+    </row>
+    <row r="48" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>0.5</v>
+      </c>
+      <c r="F48">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="G48" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" s="10"/>
+      <c r="I48" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L48" s="10"/>
+      <c r="M48">
+        <v>6</v>
+      </c>
+      <c r="N48" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O48" s="10"/>
+      <c r="P48" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q48" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="R48" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="S48" s="10"/>
+      <c r="T48">
+        <v>6</v>
+      </c>
+      <c r="U48" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="V48" s="10"/>
+      <c r="W48" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="X48" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y48" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z48" s="10"/>
+    </row>
+    <row r="49" spans="5:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <v>0.4</v>
+      </c>
+      <c r="F49">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="G49" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49" s="10"/>
+      <c r="I49" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L49" s="10"/>
+      <c r="M49">
+        <v>7</v>
+      </c>
+      <c r="N49" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O49" s="10"/>
+      <c r="P49" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q49" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="R49" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="S49" s="10"/>
+      <c r="T49">
+        <v>7</v>
+      </c>
+      <c r="U49" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="V49" s="10"/>
+      <c r="W49" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="X49" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y49" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z49" s="10"/>
+    </row>
+    <row r="50" spans="5:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <v>0.3</v>
+      </c>
+      <c r="F50">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="G50" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H50" s="10"/>
+      <c r="I50" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L50" s="10"/>
+      <c r="M50">
+        <v>8</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O50" s="10"/>
+      <c r="P50" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q50" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="R50" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="S50" s="10"/>
+      <c r="T50">
+        <v>8</v>
+      </c>
+      <c r="U50" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="V50" s="10"/>
+      <c r="W50" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="X50" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y50" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z50" s="10"/>
+    </row>
+    <row r="51" spans="5:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <v>0.2</v>
+      </c>
+      <c r="F51">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="G51" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" s="10"/>
+      <c r="I51" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L51" s="10"/>
+      <c r="M51">
+        <v>9</v>
+      </c>
+      <c r="N51" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O51" s="10"/>
+      <c r="P51" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q51" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="R51" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="S51" s="10"/>
+      <c r="T51">
+        <v>9</v>
+      </c>
+      <c r="U51" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="V51" s="10"/>
+      <c r="W51" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="X51" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y51" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z51" s="10"/>
+    </row>
+    <row r="52" spans="5:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <v>0.1</v>
+      </c>
+      <c r="F52">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>71</v>
+      <c r="G52" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H52" s="10"/>
+      <c r="I52" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L52" s="10"/>
+      <c r="M52">
+        <v>10</v>
+      </c>
+      <c r="N52" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O52" s="10"/>
+      <c r="P52" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q52" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="R52" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="S52" s="10"/>
+      <c r="T52">
+        <v>10</v>
+      </c>
+      <c r="U52" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="V52" s="10"/>
+      <c r="W52" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="X52" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y52" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z52" s="10"/>
+    </row>
+    <row r="54" spans="5:26" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="G54" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H54">
+        <v>1.7</v>
+      </c>
+      <c r="N54" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="O54">
+        <v>3.3</v>
+      </c>
+      <c r="U54" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="V54">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="55" spans="5:26" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="G55" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H55">
+        <v>2.1</v>
+      </c>
+      <c r="N55" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="O55">
+        <v>1.6</v>
+      </c>
+      <c r="U55" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="V55">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="56" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="G56" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H56">
+        <v>1.4</v>
+      </c>
+      <c r="N56" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O56">
+        <v>0.6</v>
+      </c>
+      <c r="U56" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="V56">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="57" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="G57" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H57">
+        <v>0.3</v>
+      </c>
+      <c r="N57" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="O57">
+        <v>0.5</v>
+      </c>
+      <c r="U57" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="V57">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>